--- a/medicine/Enfance/Maria_Papayanni/Maria_Papayanni.xlsx
+++ b/medicine/Enfance/Maria_Papayanni/Maria_Papayanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Papayanni (née à Larissa le 27 mai 1964) est une écrivaine grecque. Elle écrit des livres pour enfants et jeunes adultes.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Papayanni est née dans une famille nombreuse. Elle a fait des études de littérature, puis a travaillé comme journaliste pour la radio, la télévision, les journaux et les magazines[1]. Son premier livre est publié en 2001, et elle se consacre à l'écriture. Elle a publié plusieurs romans et albums jeunesse.
-Ses ouvrages ont remporté plusieurs prix en Grèce[1]. Ses ouvrages les plus connus incluent The Lonesome Tree (2010), qui a remporté le prix d'État[1], ainsi que As if by Magic (2006) et Shoes with Wings (2016), qui ont tous deux reçu le prix grec IBBY[1].
-Elle est l'auteure sélectionnée pour représenter son pays, la Grèce, pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture, en 2020 et 2022[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Papayanni est née dans une famille nombreuse. Elle a fait des études de littérature, puis a travaillé comme journaliste pour la radio, la télévision, les journaux et les magazines. Son premier livre est publié en 2001, et elle se consacre à l'écriture. Elle a publié plusieurs romans et albums jeunesse.
+Ses ouvrages ont remporté plusieurs prix en Grèce. Ses ouvrages les plus connus incluent The Lonesome Tree (2010), qui a remporté le prix d'État, ainsi que As if by Magic (2006) et Shoes with Wings (2016), qui ont tous deux reçu le prix grec IBBY.
+Elle est l'auteure sélectionnée pour représenter son pays, la Grèce, pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture, en 2020 et 2022.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,12 +586,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2006 : Prix de l'IBBY[1] de Grèce pour As if by Magic
-2010 : Prix d'État[1] pour The Lonesome Tree
-2016 : Prix de l'IBBY[1] de Grèce pour Shoes with Wings
-2020 et 2022 :  Sélection pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2006 : Prix de l'IBBY de Grèce pour As if by Magic
+2010 : Prix d'État pour The Lonesome Tree
+2016 : Prix de l'IBBY de Grèce pour Shoes with Wings
+2020 et 2022 :  Sélection pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture</t>
         </is>
       </c>
     </row>
